--- a/US/data/tables.xlsx
+++ b/US/data/tables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC960A-EC2E-412E-A85D-EF2E72821010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687E01A4-02F3-4E1B-8BB1-1E4C3D9BC9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -5210,7 +5210,7 @@
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+    <sheetView topLeftCell="A321" workbookViewId="0">
       <selection activeCell="G454" sqref="G454"/>
     </sheetView>
   </sheetViews>
@@ -13229,7 +13229,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>73</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>73</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>73</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>73</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>73</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>73</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>73</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>73</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>73</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>73</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>73</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>73</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>73</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>73</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>73</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>73</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>73</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>73</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>73</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>73</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>73</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>73</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>73</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>73</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>73</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>73</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>73</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>73</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>73</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>73</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>73</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>73</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>73</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>73</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>73</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>73</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>73</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>73</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>73</v>
       </c>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="J345" s="6"/>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>73</v>
       </c>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="J346" s="6"/>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>73</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>73</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>73</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>73</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>73</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>73</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>73</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>73</v>
       </c>
@@ -14506,7 +14506,7 @@
       </c>
       <c r="I354" s="6"/>
     </row>
-    <row r="355" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>73</v>
       </c>
@@ -14533,7 +14533,7 @@
       </c>
       <c r="J355"/>
     </row>
-    <row r="356" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>73</v>
       </c>
@@ -14561,7 +14561,7 @@
       <c r="I356"/>
       <c r="J356"/>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>73</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>73</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>73</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>73</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>73</v>
       </c>
@@ -14689,7 +14689,7 @@
       </c>
       <c r="I361" s="3"/>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>73</v>
       </c>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I362" s="3"/>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>73</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>1081</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>139</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>73</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>73</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>73</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>73</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>73</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>73</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>73</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>73</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>73</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>73</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>73</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>73</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>73</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>73</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>73</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>73</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>73</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>73</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>73</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>73</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>73</v>
       </c>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="I386" s="10"/>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>73</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>73</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>73</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>73</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>73</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>73</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>73</v>
       </c>
@@ -17425,11 +17425,6 @@
         <filter val="BEA/"/>
         <filter val="ETC/"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val="*BOC*"/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I496">
@@ -37076,8 +37071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/US/data/tables.xlsx
+++ b/US/data/tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687E01A4-02F3-4E1B-8BB1-1E4C3D9BC9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390F89D-25A0-4550-A3E2-7DF717FD2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -5207,11 +5207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="工作表1" filterMode="1"/>
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="G454" sqref="G454"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6677,7 +6677,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>165</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>165</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>165</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>165</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>165</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>165</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>165</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>165</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>165</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>165</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>165</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>165</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>165</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>165</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>165</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>165</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>165</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>165</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>165</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>165</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>165</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>165</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>165</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>165</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>165</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>165</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>165</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>165</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>165</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>165</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>165</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>165</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>165</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>165</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>165</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>165</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>165</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>165</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>165</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>165</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>165</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>165</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>165</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>165</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>165</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>165</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>165</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>165</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>165</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>165</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>165</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>165</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>165</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>165</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>165</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>165</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>165</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>165</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>165</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>165</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>165</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>165</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>165</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>165</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>165</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>165</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>165</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>165</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>165</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>165</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>165</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>165</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>165</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>165</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>165</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>165</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>165</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>165</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>165</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>165</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>165</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>165</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>165</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>165</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>165</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>165</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>165</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>165</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>165</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>165</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>165</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>165</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>165</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>165</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>165</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>165</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>165</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>165</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>165</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>165</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>165</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>165</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>165</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>165</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>165</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>165</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>165</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>165</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>165</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>165</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>165</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>165</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>165</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>165</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>165</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>165</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>165</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>165</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>165</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>165</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>165</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>165</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>165</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>165</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>165</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>165</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>165</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>165</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>165</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>165</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>165</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>165</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>165</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>165</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>165</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>165</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>165</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>165</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>165</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>165</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>165</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>165</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>165</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>165</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>165</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>165</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>165</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>165</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>165</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>165</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>165</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>165</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>165</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>165</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>165</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>165</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>165</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>165</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>165</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>165</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>165</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>165</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>165</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>165</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>165</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>165</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>165</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>165</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>165</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>165</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>165</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>165</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>165</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>165</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>165</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>165</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>165</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>165</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>165</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>165</v>
       </c>
@@ -17419,14 +17419,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H466" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BEA/"/>
-        <filter val="ETC/"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H466" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I496">
     <sortCondition ref="B2:B496"/>
     <sortCondition ref="C2:C496"/>
@@ -34455,7 +34448,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37071,7 +37064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -39552,7 +39545,7 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>

--- a/US/data/tables.xlsx
+++ b/US/data/tables.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390F89D-25A0-4550-A3E2-7DF717FD2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9673D222-157A-4397-9BC3-A0C197675231}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,18 +27,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$H$466</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5309,7 +5301,7 @@
       </c>
       <c r="J3">
         <f>SUM(H:H)</f>
-        <v>205324</v>
+        <v>205361</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5604,7 +5596,7 @@
       </c>
       <c r="J13">
         <f>SUMIF(A:A,A306,H:H)</f>
-        <v>8132</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5722,7 +5714,7 @@
       </c>
       <c r="J17">
         <f>J13+J15</f>
-        <v>8134</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5781,7 +5773,7 @@
       </c>
       <c r="J19">
         <f>J3-J5-J7</f>
-        <v>13198</v>
+        <v>13235</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5840,7 +5832,7 @@
       </c>
       <c r="J21">
         <f>J3-J5-J17-J7</f>
-        <v>5064</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -14293,7 +14285,7 @@
         <v>1295</v>
       </c>
       <c r="H346">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="J346" s="6"/>
     </row>
@@ -16375,7 +16367,7 @@
         <v>1295</v>
       </c>
       <c r="H426">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -17420,7 +17412,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H466" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I496">
+  <sortState ref="A2:I496">
     <sortCondition ref="B2:B496"/>
     <sortCondition ref="C2:C496"/>
     <sortCondition ref="D2:D496"/>
@@ -36408,7 +36400,7 @@
       </c>
       <c r="D18">
         <f>SUMIF(tables!C:C,A18,tables!H:H)</f>
-        <v>1567</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -36687,7 +36679,7 @@
       </c>
       <c r="D41">
         <f>SUMIF(tables!C:C,A41,tables!H:H)</f>
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -37051,7 +37043,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
+  <sortState ref="A2:D71">
     <sortCondition descending="1" ref="D2:D71"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -43033,7 +43025,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W64">
+  <sortState ref="A2:W64">
     <sortCondition ref="A2:A64"/>
     <sortCondition ref="B2:B64"/>
     <sortCondition ref="C2:C64"/>
@@ -43485,7 +43477,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
+  <sortState ref="A2:J14">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
